--- a/Rosegate Table 1.xlsx
+++ b/Rosegate Table 1.xlsx
@@ -596,7 +596,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>

--- a/Rosegate Table 1.xlsx
+++ b/Rosegate Table 1.xlsx
@@ -596,7 +596,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
